--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -239,12 +239,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -577,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,16 +613,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,89 +631,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +721,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1043,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1035,7 +1053,7 @@
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="15.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="19.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -1048,16 +1066,16 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1071,21 +1089,21 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
@@ -1108,7 +1126,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
@@ -1131,7 +1149,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
@@ -1154,7 +1172,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
@@ -1177,7 +1195,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>2101</v>
       </c>
       <c r="B8" t="s">

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -64,7 +64,10 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>FireBall</t>
+    <t>0;10</t>
+  </si>
+  <si>
+    <t>FireBall;FireBallBoom</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1043,7 +1046,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1052,7 +1055,7 @@
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="24.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="19.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,19 +1136,19 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1153,7 +1156,7 @@
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1176,7 +1179,7 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -1199,7 +1202,7 @@
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0.6</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillPerform" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,12 @@
     <t>listEffectViewTime</t>
   </si>
   <si>
+    <t>listSoundType</t>
+  </si>
+  <si>
+    <t>listSoundTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -68,6 +74,15 @@
   </si>
   <si>
     <t>FireBall;FireBallBoom</t>
+  </si>
+  <si>
+    <t>2;13</t>
+  </si>
+  <si>
+    <t>FireBall;Boom</t>
+  </si>
+  <si>
+    <t>0;13</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -242,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +637,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -634,89 +655,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +751,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,23 +1067,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="16.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="24.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="19.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="22.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="18.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1081,45 +1107,57 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1127,45 +1165,57 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1173,22 +1223,28 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1196,27 +1252,39 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0.6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>listEffectViewType</t>
   </si>
   <si>
+    <t>listEffectPosType</t>
+  </si>
+  <si>
     <t>listEffectViewTime</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>FireBall;FireBallBoom</t>
   </si>
   <si>
+    <t>TargetPos;AllTile</t>
+  </si>
+  <si>
     <t>2;13</t>
   </si>
   <si>
@@ -86,6 +92,18 @@
   </si>
   <si>
     <t>Boom!</t>
+  </si>
+  <si>
+    <t>0;6</t>
+  </si>
+  <si>
+    <t>FireBallBoom</t>
+  </si>
+  <si>
+    <t>AllBurn</t>
+  </si>
+  <si>
+    <t>Boom</t>
   </si>
   <si>
     <t>Strike</t>
@@ -278,19 +296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1080,12 +1098,13 @@
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="22.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="18.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="17.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="18.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1107,57 +1126,63 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1171,80 +1196,89 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0.6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1258,22 +1292,25 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0.6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1285,6 +1322,9 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Boom</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>TargetPos</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1085,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
@@ -1265,8 +1274,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>2001</v>
+      <c r="A7" s="2">
+        <v>1401</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1278,16 +1287,16 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1297,11 +1306,11 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
-        <v>2101</v>
+      <c r="A8" s="3">
+        <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>0.6</v>
@@ -1325,6 +1334,38 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>2101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,91 @@
     <t>Boom</t>
   </si>
   <si>
+    <t>Chronal Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Time Mending</t>
+  </si>
+  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
-    <t>Thunder</t>
+    <t>0;19</t>
+  </si>
+  <si>
+    <t>Thunder;ThunderHit</t>
+  </si>
+  <si>
+    <t>19;21</t>
+  </si>
+  <si>
+    <t>LightingDestroy</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Time Expand</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Final Chant</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Wind Chop</t>
+  </si>
+  <si>
+    <t>Overtime Work</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Provoke</t>
+  </si>
+  <si>
+    <t>Take a Nap</t>
+  </si>
+  <si>
+    <t>Fish Drat</t>
+  </si>
+  <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>Final Guard</t>
+  </si>
+  <si>
+    <t>Super Worker</t>
+  </si>
+  <si>
+    <t>Finish Work</t>
+  </si>
+  <si>
+    <t>Ready;Focus;Attack</t>
+  </si>
+  <si>
+    <t>0;18;38</t>
   </si>
   <si>
     <t>TargetPos</t>
   </si>
   <si>
-    <t>Strike</t>
-  </si>
-  <si>
-    <t>Wind Chop</t>
+    <t>FinalWork</t>
   </si>
 </sst>
 </file>
@@ -284,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +718,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,16 +742,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -682,89 +760,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +859,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1109,7 +1190,7 @@
     <col min="6" max="6" width="22.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="17.7272727272727" customWidth="1"/>
     <col min="8" max="8" width="18.7272727272727" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="13.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1274,8 +1355,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>1401</v>
+      <c r="A7" s="5">
+        <v>1201</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1283,43 +1364,43 @@
       <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>1202</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8">
         <v>0.6</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1338,34 +1419,610 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4">
-        <v>2101</v>
+      <c r="A9" s="1">
+        <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0.6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>2.1</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6">
+        <v>1901</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6">
+        <v>1902</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6">
+        <v>1903</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>2101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>2201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>2202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>2301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>2302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>2401</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>2402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6">
+        <v>2901</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6">
+        <v>2902</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6">
+        <v>2903</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>3.8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -187,7 +187,13 @@
     <t>0;18;38</t>
   </si>
   <si>
-    <t>TargetPos</t>
+    <t>EnergyFire;FireBallBoom</t>
+  </si>
+  <si>
+    <t>Subject;TargetPos</t>
+  </si>
+  <si>
+    <t>18;38</t>
   </si>
   <si>
     <t>FinalWork</t>
@@ -1178,7 +1184,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1187,7 +1193,7 @@
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="22.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="24.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="17.7272727272727" customWidth="1"/>
     <col min="8" max="8" width="18.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="16.4545454545455" customWidth="1"/>
@@ -2011,16 +2017,16 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>0;4</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>TargetPos</t>
   </si>
   <si>
     <t>Stream</t>
@@ -1184,7 +1193,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1400,22 +1409,22 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1429,7 +1438,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1461,7 +1470,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -1493,7 +1502,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2.1</v>
@@ -1502,19 +1511,19 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1525,7 +1534,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -1557,7 +1566,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -1589,7 +1598,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -1621,7 +1630,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -1653,7 +1662,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1685,7 +1694,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1717,7 +1726,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -1749,7 +1758,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -1781,7 +1790,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1813,7 +1822,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.6</v>
@@ -1845,7 +1854,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.6</v>
@@ -1877,7 +1886,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.6</v>
@@ -1909,7 +1918,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -1941,7 +1950,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -1973,7 +1982,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2005,28 +2014,28 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,12 @@
     <t>listSoundTime</t>
   </si>
   <si>
+    <t>listCameraPosType</t>
+  </si>
+  <si>
+    <t>listCameraTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>0;13</t>
+  </si>
+  <si>
+    <t>CharacterLeft</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1190,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1207,9 +1216,11 @@
     <col min="8" max="8" width="18.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="16.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="13.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1240,54 +1251,66 @@
       <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1304,77 +1327,95 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -1400,28 +1441,34 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1.4</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1432,13 +1479,19 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1464,13 +1517,19 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -1496,45 +1555,57 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2.1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -1560,13 +1631,19 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -1592,13 +1669,19 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -1624,13 +1707,19 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -1656,22 +1745,28 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.6</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1688,22 +1783,28 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.6</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1720,13 +1821,19 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -1752,13 +1859,19 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="5">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -1784,13 +1897,19 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="5">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1816,13 +1935,19 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.6</v>
@@ -1848,13 +1973,19 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.6</v>
@@ -1880,13 +2011,19 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.6</v>
@@ -1912,13 +2049,19 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -1944,13 +2087,19 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -1976,13 +2125,19 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2008,36 +2163,48 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>0;13</t>
   </si>
   <si>
-    <t>CharacterLeft</t>
+    <t>CharacterLeftHigh</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>TargetPos</t>
+  </si>
+  <si>
+    <t>CharacterLeftLow</t>
   </si>
   <si>
     <t>Stream</t>
@@ -1202,7 +1205,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1342,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1479,8 +1482,8 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>38</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1491,7 +1494,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1529,7 +1532,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -1567,34 +1570,34 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1605,7 +1608,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -1643,7 +1646,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -1681,7 +1684,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -1719,7 +1722,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -1757,7 +1760,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1795,7 +1798,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1833,7 +1836,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -1871,7 +1874,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -1909,7 +1912,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1947,7 +1950,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>0.6</v>
@@ -1985,7 +1988,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0.6</v>
@@ -2023,7 +2026,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>0.6</v>
@@ -2061,7 +2064,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -2099,7 +2102,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -2137,7 +2140,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2175,28 +2178,28 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>FinalWork</t>
+  </si>
+  <si>
+    <t>MiddleLeft</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2204,8 +2207,8 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>68</v>
       </c>
       <c r="L27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -157,6 +157,9 @@
     <t>Teleport</t>
   </si>
   <si>
+    <t>FocusTarget;FocusTargetExtra</t>
+  </si>
+  <si>
     <t>Time Expand</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>Take a Nap</t>
+  </si>
+  <si>
+    <t>FocusSubject</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1208,7 +1214,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1222,7 +1228,7 @@
     <col min="8" max="8" width="18.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="16.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="13.5454545454545" customWidth="1"/>
-    <col min="11" max="11" width="17.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="29.0909090909091" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1614,7 +1620,7 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1637,11 +1643,11 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1649,7 +1655,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -1687,7 +1693,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -1725,7 +1731,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -1763,7 +1769,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1801,7 +1807,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1839,7 +1845,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -1877,7 +1883,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -1915,7 +1921,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1953,7 +1959,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>0.6</v>
@@ -1979,8 +1985,8 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
+      <c r="K21" t="s">
+        <v>57</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1991,7 +1997,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>0.6</v>
@@ -2029,7 +2035,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>0.6</v>
@@ -2067,7 +2073,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -2105,7 +2111,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -2143,7 +2149,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2181,34 +2187,34 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -115,9 +115,15 @@
     <t>Boom</t>
   </si>
   <si>
+    <t>FocusSubject</t>
+  </si>
+  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
+    <t>FocusSubject;FocusTarget</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -169,12 +175,18 @@
     <t>Final Chant</t>
   </si>
   <si>
+    <t>Focus</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
     <t>Wind Chop</t>
   </si>
   <si>
+    <t>MiddleLeft</t>
+  </si>
+  <si>
     <t>Overtime Work</t>
   </si>
   <si>
@@ -187,9 +199,6 @@
     <t>Take a Nap</t>
   </si>
   <si>
-    <t>FocusSubject</t>
-  </si>
-  <si>
     <t>Fish Drat</t>
   </si>
   <si>
@@ -224,9 +233,6 @@
   </si>
   <si>
     <t>FinalWork</t>
-  </si>
-  <si>
-    <t>MiddleLeft</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1220,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1415,8 +1421,8 @@
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>33</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1427,16 +1433,16 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1453,11 +1459,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1465,7 +1471,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>1.4</v>
@@ -1474,13 +1480,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1492,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1503,7 +1509,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1541,16 +1547,16 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1567,11 +1573,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1579,7 +1585,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -1588,25 +1594,25 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1617,16 +1623,16 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>1.1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -1655,16 +1661,16 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1681,11 +1687,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1693,16 +1699,16 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1719,11 +1725,11 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1731,13 +1737,13 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.6</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1757,8 +1763,8 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>33</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1769,7 +1775,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1807,7 +1813,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1816,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1833,8 +1839,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
+      <c r="K17" t="s">
+        <v>56</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1845,13 +1851,13 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0.6</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1871,8 +1877,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>33</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1883,16 +1889,16 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1909,11 +1915,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1921,13 +1927,13 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0.6</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1947,8 +1953,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="K20" t="s">
+        <v>33</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1959,13 +1965,13 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1986,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1997,16 +2003,16 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>0.6</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2023,8 +2029,8 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="K22" t="s">
+        <v>27</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2035,16 +2041,16 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2061,11 +2067,11 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2073,16 +2079,16 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2099,11 +2105,11 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2111,13 +2117,13 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0.6</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2137,8 +2143,8 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>33</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2149,16 +2155,16 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>0.6</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2175,11 +2181,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2187,34 +2193,34 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L27">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>FinalWork</t>
+  </si>
+  <si>
+    <t>Tadpole Strike</t>
+  </si>
+  <si>
+    <t>Cook Human On Time</t>
+  </si>
+  <si>
+    <t>Hero Rabbit</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="L28" sqref="L28:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2226,6 +2235,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>3001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>3101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>3201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Hero Rabbit</t>
+  </si>
+  <si>
+    <t>Unstable Rabbit</t>
+  </si>
+  <si>
+    <t>AllTile</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L30"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2349,6 +2355,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>3301</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>0.6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -241,10 +241,16 @@
     <t>Cook Human On Time</t>
   </si>
   <si>
+    <t>Unstable Rabbit</t>
+  </si>
+  <si>
+    <t>Random MilkTea</t>
+  </si>
+  <si>
     <t>Hero Rabbit</t>
   </si>
   <si>
-    <t>Unstable Rabbit</t>
+    <t>Void Rabbit</t>
   </si>
   <si>
     <t>AllTile</t>
@@ -1232,15 +1238,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="16.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="16.0909090909091" customWidth="1"/>
@@ -2280,7 +2286,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>3101</v>
       </c>
       <c r="B29" t="s">
@@ -2318,14 +2324,14 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30">
-        <v>3201</v>
+      <c r="A30" s="3">
+        <v>3102</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2333,14 +2339,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2356,14 +2362,14 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31">
-        <v>3301</v>
+      <c r="A31" s="3">
+        <v>3103</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
       <c r="C31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2371,25 +2377,101 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>33</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>3201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>3301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -254,6 +254,36 @@
   </si>
   <si>
     <t>AllTile</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Write me!</t>
+  </si>
+  <si>
+    <t>Anxious Nodule</t>
+  </si>
+  <si>
+    <t>Anxious Fire</t>
+  </si>
+  <si>
+    <t>Anxious Water</t>
+  </si>
+  <si>
+    <t>Anxious Gravity</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Cruelty</t>
+  </si>
+  <si>
+    <t>Emotional Damage</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1268,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2475,6 +2509,348 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>9001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>9002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>9101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>9102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>9103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>9104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>9201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>9202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>9301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="SkillPerform" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +155,21 @@
     <t>Stream</t>
   </si>
   <si>
+    <t>Focus;Attack;Ready</t>
+  </si>
+  <si>
+    <t>0;6;12</t>
+  </si>
+  <si>
+    <t>Fourtain</t>
+  </si>
+  <si>
+    <t>AllTile</t>
+  </si>
+  <si>
+    <t>MiddleLeft</t>
+  </si>
+  <si>
     <t>Time Mending</t>
   </si>
   <si>
@@ -184,9 +212,6 @@
     <t>Wind Chop</t>
   </si>
   <si>
-    <t>MiddleLeft</t>
-  </si>
-  <si>
     <t>Overtime Work</t>
   </si>
   <si>
@@ -251,9 +276,6 @@
   </si>
   <si>
     <t>Void Rabbit</t>
-  </si>
-  <si>
-    <t>AllTile</t>
   </si>
   <si>
     <t>Bite</t>
@@ -289,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1271,11 +1293,11 @@
   <dimension ref="A2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1567,22 +1589,22 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1590,8 +1612,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>46</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1602,7 +1624,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>1.1</v>
@@ -1640,7 +1662,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -1649,19 +1671,19 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1678,7 +1700,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1.1</v>
@@ -1705,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -1716,7 +1738,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1.1</v>
@@ -1754,7 +1776,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>1.1</v>
@@ -1792,13 +1814,13 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>0.6</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1830,7 +1852,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1868,7 +1890,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -1895,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1906,13 +1928,13 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>0.6</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1944,7 +1966,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1.1</v>
@@ -1982,13 +2004,13 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>0.6</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2020,13 +2042,13 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2058,7 +2080,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>1.1</v>
@@ -2096,7 +2118,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>1.1</v>
@@ -2134,7 +2156,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>1.1</v>
@@ -2172,13 +2194,13 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>0.6</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2210,7 +2232,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>1.1</v>
@@ -2248,34 +2270,34 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2286,7 +2308,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>0.5</v>
@@ -2324,7 +2346,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -2362,7 +2384,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2374,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>23</v>
@@ -2400,7 +2422,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2438,7 +2460,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -2476,7 +2498,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C33">
         <v>0.6</v>
@@ -2491,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -2514,13 +2536,13 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2552,13 +2574,13 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35">
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2590,13 +2612,13 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2628,13 +2650,13 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2666,13 +2688,13 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2704,13 +2726,13 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2742,13 +2764,13 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2780,13 +2802,13 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2818,13 +2840,13 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Wind Chop</t>
+  </si>
+  <si>
+    <t>Cut</t>
   </si>
   <si>
     <t>Overtime Work</t>
@@ -1297,7 +1300,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1893,7 +1896,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1901,14 +1904,14 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1928,7 +1931,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -1966,7 +1969,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>1.1</v>
@@ -2004,7 +2007,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -2042,7 +2045,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>0.6</v>
@@ -2080,7 +2083,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>1.1</v>
@@ -2118,7 +2121,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>1.1</v>
@@ -2156,7 +2159,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1.1</v>
@@ -2194,7 +2197,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>0.6</v>
@@ -2232,7 +2235,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>1.1</v>
@@ -2270,28 +2273,28 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2308,7 +2311,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>0.5</v>
@@ -2346,7 +2349,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -2384,7 +2387,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2422,7 +2425,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2460,7 +2463,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -2498,7 +2501,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>0.6</v>
@@ -2536,13 +2539,13 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2574,13 +2577,13 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2612,13 +2615,13 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2650,13 +2653,13 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2688,13 +2691,13 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2764,13 +2767,13 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2802,13 +2805,13 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2840,13 +2843,13 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -1296,11 +1296,11 @@
   <dimension ref="A2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2559,11 +2559,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="I34" t="s">
+        <v>84</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>33</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>0;5</t>
+  </si>
+  <si>
+    <t>RabbitAttack</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -1296,11 +1299,11 @@
   <dimension ref="A2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1419,8 +1422,8 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1437,7 +1440,7 @@
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1.7</v>
@@ -1446,25 +1449,25 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1475,7 +1478,7 @@
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1484,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1513,7 +1516,7 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>1.1</v>
@@ -1522,7 +1525,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1540,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1551,7 +1554,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1.4</v>
@@ -1560,13 +1563,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1578,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1589,22 +1592,22 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1627,7 +1630,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>1.1</v>
@@ -1636,7 +1639,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1654,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1665,7 +1668,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -1674,25 +1677,25 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1703,7 +1706,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1.1</v>
@@ -1712,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1730,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1741,7 +1744,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1.1</v>
@@ -1750,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1768,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1779,7 +1782,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1.1</v>
@@ -1788,7 +1791,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1806,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1817,13 +1820,13 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0.6</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1855,7 +1858,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1875,8 +1878,8 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>60</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1893,7 +1896,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>0.9</v>
@@ -1902,13 +1905,13 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -1920,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1931,13 +1934,13 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>0.6</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1969,7 +1972,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>1.1</v>
@@ -1978,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1996,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2007,13 +2010,13 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>0.6</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2045,13 +2048,13 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2083,7 +2086,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>1.1</v>
@@ -2092,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2121,7 +2124,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>1.1</v>
@@ -2130,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2148,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2159,7 +2162,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1.1</v>
@@ -2168,7 +2171,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2186,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2197,13 +2200,13 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>0.6</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2224,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2235,7 +2238,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>1.1</v>
@@ -2244,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2262,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2273,34 +2276,34 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2311,7 +2314,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>0.5</v>
@@ -2338,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2349,7 +2352,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -2376,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2387,7 +2390,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2399,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2414,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2425,7 +2428,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2452,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2463,7 +2466,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -2490,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2501,7 +2504,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>0.6</v>
@@ -2513,22 +2516,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J33">
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2539,34 +2542,34 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>85</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>84</v>
       </c>
       <c r="J34">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2577,13 +2580,13 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2604,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2615,13 +2618,13 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2642,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -2653,13 +2656,13 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2680,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
@@ -2691,13 +2694,13 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2718,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
@@ -2729,13 +2732,13 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2756,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s">
         <v>19</v>
@@ -2767,13 +2770,13 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2794,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -2805,13 +2808,13 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2832,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2843,13 +2846,13 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2870,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L42">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -278,12 +278,24 @@
     <t>Random MilkTea</t>
   </si>
   <si>
+    <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
+    <t>Motorhome Drive</t>
+  </si>
+  <si>
+    <t>Random Helper</t>
+  </si>
+  <si>
     <t>Hero Rabbit</t>
   </si>
   <si>
     <t>Void Rabbit</t>
   </si>
   <si>
+    <t>Rescuer Rabbit</t>
+  </si>
+  <si>
     <t>Bite</t>
   </si>
   <si>
@@ -312,6 +324,15 @@
   </si>
   <si>
     <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Summon Darkness</t>
+  </si>
+  <si>
+    <t>Pressure</t>
   </si>
 </sst>
 </file>
@@ -1296,14 +1317,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2355,7 +2376,7 @@
         <v>80</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2379,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2462,14 +2483,14 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32">
-        <v>3201</v>
+      <c r="A32" s="3">
+        <v>3104</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2493,21 +2514,21 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33">
-        <v>3301</v>
+      <c r="A33" s="3">
+        <v>3105</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2515,20 +2536,20 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -2538,8 +2559,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34">
-        <v>9001</v>
+      <c r="A34" s="3">
+        <v>3106</v>
       </c>
       <c r="B34" t="s">
         <v>85</v>
@@ -2547,8 +2568,8 @@
       <c r="C34">
         <v>0.5</v>
       </c>
-      <c r="D34" t="s">
-        <v>86</v>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2562,11 +2583,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>85</v>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>34</v>
@@ -2577,16 +2598,16 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>9002</v>
+        <v>3201</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>0.5</v>
       </c>
-      <c r="D35" t="s">
-        <v>86</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2615,54 +2636,54 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>9101</v>
+        <v>3301</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>9102</v>
+        <v>3401</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>86</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2691,17 +2712,17 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>9103</v>
+        <v>9001</v>
       </c>
       <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -2714,31 +2735,31 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
+      <c r="I38" t="s">
+        <v>89</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>9104</v>
+        <v>9002</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2759,15 +2780,15 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>9201</v>
+        <v>9101</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
@@ -2776,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2805,16 +2826,16 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>9202</v>
+        <v>9102</v>
       </c>
       <c r="B41" t="s">
         <v>93</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2835,47 +2856,313 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>9301</v>
+        <v>9103</v>
       </c>
       <c r="B42" t="s">
         <v>94</v>
       </c>
       <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>9104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>9201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>9202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
         <v>0.5</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>34</v>
       </c>
-      <c r="L42">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>9301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5">
+        <v>9302</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>9901</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>9902</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -269,9 +269,15 @@
     <t>Tadpole Strike</t>
   </si>
   <si>
+    <t>WhereMom</t>
+  </si>
+  <si>
     <t>Cook Human On Time</t>
   </si>
   <si>
+    <t>DontStudy</t>
+  </si>
+  <si>
     <t>Unstable Rabbit</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
+    <t>GogoOh</t>
   </si>
   <si>
     <t>Motorhome Drive</t>
@@ -1320,11 +1329,11 @@
   <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2355,8 +2364,8 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="I28" t="s">
+        <v>80</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2373,7 +2382,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2393,8 +2402,8 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="I29" t="s">
+        <v>82</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2411,7 +2420,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2449,7 +2458,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2487,7 +2496,7 @@
         <v>3104</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2507,8 +2516,8 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>86</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2525,7 +2534,7 @@
         <v>3105</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>0.5</v>
@@ -2563,7 +2572,7 @@
         <v>3106</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -2601,7 +2610,7 @@
         <v>3201</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>0.5</v>
@@ -2639,7 +2648,7 @@
         <v>3301</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2677,7 +2686,7 @@
         <v>3401</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2715,13 +2724,13 @@
         <v>9001</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>0.5</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2736,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -2753,13 +2762,13 @@
         <v>9002</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2791,13 +2800,13 @@
         <v>9101</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2829,13 +2838,13 @@
         <v>9102</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2867,13 +2876,13 @@
         <v>9103</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2905,13 +2914,13 @@
         <v>9104</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2943,13 +2952,13 @@
         <v>9201</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2981,13 +2990,13 @@
         <v>9202</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>0.5</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3019,13 +3028,13 @@
         <v>9301</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3057,13 +3066,13 @@
         <v>9302</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3095,13 +3104,13 @@
         <v>9901</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3133,13 +3142,13 @@
         <v>9902</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13830" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="SkillPerform" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -119,189 +119,243 @@
     <t>Boom!</t>
   </si>
   <si>
+    <t>FireBallBoom</t>
+  </si>
+  <si>
+    <t>AllBurn</t>
+  </si>
+  <si>
+    <t>Explosion;Boom</t>
+  </si>
+  <si>
+    <t>FocusSubject</t>
+  </si>
+  <si>
+    <t>Chronal Shift</t>
+  </si>
+  <si>
     <t>0;6</t>
   </si>
   <si>
-    <t>FireBallBoom</t>
-  </si>
-  <si>
-    <t>AllBurn</t>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>FocusSubject;FocusTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>0;4</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>TargetPos</t>
+  </si>
+  <si>
+    <t>CharacterLeftLow</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Focus;Attack;Ready</t>
+  </si>
+  <si>
+    <t>0;6;12</t>
+  </si>
+  <si>
+    <t>Fourtain</t>
+  </si>
+  <si>
+    <t>AllTile</t>
+  </si>
+  <si>
+    <t>MiddleLeft</t>
+  </si>
+  <si>
+    <t>Time Mending</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>0;19</t>
+  </si>
+  <si>
+    <t>Thunder;ThunderHit</t>
+  </si>
+  <si>
+    <t>19;21</t>
+  </si>
+  <si>
+    <t>LightingDestroy</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>FocusTarget;FocusTargetExtra</t>
+  </si>
+  <si>
+    <t>Time Expand</t>
+  </si>
+  <si>
+    <t>0;9</t>
+  </si>
+  <si>
+    <t>LordTime</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Final Chant</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>FinalSpell</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Wind Chop</t>
+  </si>
+  <si>
+    <t>0;8</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>WorkWork</t>
+  </si>
+  <si>
+    <t>Overtime Work</t>
+  </si>
+  <si>
+    <t>WorkTime</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>GoDie</t>
+  </si>
+  <si>
+    <t>Provoke</t>
+  </si>
+  <si>
+    <t>Haha</t>
+  </si>
+  <si>
+    <t>Take a Nap</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Fish Drat</t>
+  </si>
+  <si>
+    <t>RestRightNow</t>
+  </si>
+  <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
+    <t>Nigelu</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>Tanomu</t>
+  </si>
+  <si>
+    <t>Final Guard</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Super Worker</t>
+  </si>
+  <si>
+    <t>SuperWorker</t>
+  </si>
+  <si>
+    <t>Finish Work</t>
+  </si>
+  <si>
+    <t>Ready;Focus;Attack</t>
+  </si>
+  <si>
+    <t>0;18;38</t>
+  </si>
+  <si>
+    <t>EnergyFire;FireBallBoom</t>
+  </si>
+  <si>
+    <t>Subject;TargetPos</t>
+  </si>
+  <si>
+    <t>18;38</t>
+  </si>
+  <si>
+    <t>FinalWork</t>
+  </si>
+  <si>
+    <t>Tadpole Strike</t>
+  </si>
+  <si>
+    <t>WhereMom</t>
+  </si>
+  <si>
+    <t>Cook Human On Time</t>
+  </si>
+  <si>
+    <t>DontStudy</t>
+  </si>
+  <si>
+    <t>Unstable Rabbit</t>
+  </si>
+  <si>
+    <t>Random MilkTea</t>
+  </si>
+  <si>
+    <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
+    <t>GogoOh</t>
+  </si>
+  <si>
+    <t>Motorhome Drive</t>
+  </si>
+  <si>
+    <t>Random Helper</t>
+  </si>
+  <si>
+    <t>Hero Rabbit</t>
+  </si>
+  <si>
+    <t>Void Rabbit</t>
   </si>
   <si>
     <t>Boom</t>
   </si>
   <si>
-    <t>FocusSubject</t>
-  </si>
-  <si>
-    <t>Chronal Shift</t>
-  </si>
-  <si>
-    <t>FocusSubject;FocusTarget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravity </t>
-  </si>
-  <si>
-    <t>0;4</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>TargetPos</t>
-  </si>
-  <si>
-    <t>CharacterLeftLow</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>Focus;Attack;Ready</t>
-  </si>
-  <si>
-    <t>0;6;12</t>
-  </si>
-  <si>
-    <t>Fourtain</t>
-  </si>
-  <si>
-    <t>AllTile</t>
-  </si>
-  <si>
-    <t>MiddleLeft</t>
-  </si>
-  <si>
-    <t>Time Mending</t>
-  </si>
-  <si>
-    <t>Lightning Bolt</t>
-  </si>
-  <si>
-    <t>0;19</t>
-  </si>
-  <si>
-    <t>Thunder;ThunderHit</t>
-  </si>
-  <si>
-    <t>19;21</t>
-  </si>
-  <si>
-    <t>LightingDestroy</t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>FocusTarget;FocusTargetExtra</t>
-  </si>
-  <si>
-    <t>Time Expand</t>
-  </si>
-  <si>
-    <t>Infinity</t>
-  </si>
-  <si>
-    <t>Final Chant</t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t>Strike</t>
-  </si>
-  <si>
-    <t>Wind Chop</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Overtime Work</t>
-  </si>
-  <si>
-    <t>Curse</t>
-  </si>
-  <si>
-    <t>Provoke</t>
-  </si>
-  <si>
-    <t>Take a Nap</t>
-  </si>
-  <si>
-    <t>Fish Drat</t>
-  </si>
-  <si>
-    <t>Rush Hour</t>
-  </si>
-  <si>
-    <t>Inspire</t>
-  </si>
-  <si>
-    <t>Final Guard</t>
-  </si>
-  <si>
-    <t>Super Worker</t>
-  </si>
-  <si>
-    <t>Finish Work</t>
-  </si>
-  <si>
-    <t>Ready;Focus;Attack</t>
-  </si>
-  <si>
-    <t>0;18;38</t>
-  </si>
-  <si>
-    <t>EnergyFire;FireBallBoom</t>
-  </si>
-  <si>
-    <t>Subject;TargetPos</t>
-  </si>
-  <si>
-    <t>18;38</t>
-  </si>
-  <si>
-    <t>FinalWork</t>
-  </si>
-  <si>
-    <t>Tadpole Strike</t>
-  </si>
-  <si>
-    <t>WhereMom</t>
-  </si>
-  <si>
-    <t>Cook Human On Time</t>
-  </si>
-  <si>
-    <t>DontStudy</t>
-  </si>
-  <si>
-    <t>Unstable Rabbit</t>
-  </si>
-  <si>
-    <t>Random MilkTea</t>
-  </si>
-  <si>
-    <t>Gogo Rabbit's Trap</t>
-  </si>
-  <si>
-    <t>GogoOh</t>
-  </si>
-  <si>
-    <t>Motorhome Drive</t>
-  </si>
-  <si>
-    <t>Random Helper</t>
-  </si>
-  <si>
-    <t>Hero Rabbit</t>
-  </si>
-  <si>
-    <t>Void Rabbit</t>
-  </si>
-  <si>
     <t>Rescuer Rabbit</t>
   </si>
   <si>
@@ -315,6 +369,9 @@
   </si>
   <si>
     <t>Anxious Nodule</t>
+  </si>
+  <si>
+    <t>Hoi</t>
   </si>
   <si>
     <t>Anxious Fire</t>
@@ -1329,11 +1386,11 @@
   <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1511,31 +1568,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1546,7 +1603,7 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1.1</v>
@@ -1555,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1566,17 +1623,17 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>36</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1584,7 +1641,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1.4</v>
@@ -1593,25 +1650,25 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>40</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1622,34 +1679,34 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>46</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1660,7 +1717,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1.1</v>
@@ -1669,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1680,17 +1737,17 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>50</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1698,7 +1755,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -1707,25 +1764,25 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1736,7 +1793,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1.1</v>
@@ -1745,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1763,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1774,16 +1831,16 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1794,17 +1851,17 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>60</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1812,7 +1869,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1.1</v>
@@ -1821,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1832,17 +1889,17 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>61</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1850,13 +1907,13 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1870,14 +1927,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>64</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1888,7 +1945,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>0.6</v>
@@ -1909,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1926,34 +1983,34 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1964,13 +2021,13 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>0.6</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1984,14 +2041,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>72</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2002,7 +2059,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>1.1</v>
@@ -2011,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2022,17 +2079,17 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="I19" t="s">
+        <v>74</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2040,13 +2097,13 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>0.6</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2060,14 +2117,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>76</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2078,13 +2135,13 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2098,14 +2155,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
+      <c r="I21" t="s">
+        <v>78</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2116,7 +2173,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>1.1</v>
@@ -2125,7 +2182,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2136,8 +2193,8 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="I22" t="s">
+        <v>80</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2154,7 +2211,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>1.1</v>
@@ -2163,7 +2220,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2174,17 +2231,17 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
+      <c r="I23" t="s">
+        <v>82</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2192,7 +2249,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>1.1</v>
@@ -2201,7 +2258,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2212,17 +2269,17 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>84</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2230,13 +2287,13 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C25">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2250,14 +2307,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
+      <c r="I25" t="s">
+        <v>86</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2268,7 +2325,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>1.1</v>
@@ -2277,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2288,17 +2345,17 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="I26" t="s">
+        <v>88</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2306,34 +2363,34 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2344,7 +2401,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>0.5</v>
@@ -2365,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2382,7 +2439,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2403,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L29" t="s">
         <v>19</v>
@@ -2420,7 +2477,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2432,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2447,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2458,7 +2515,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2485,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2496,7 +2553,7 @@
         <v>3104</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2517,13 +2574,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
@@ -2534,7 +2591,7 @@
         <v>3105</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>0.5</v>
@@ -2561,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2572,7 +2629,7 @@
         <v>3106</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -2599,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2610,7 +2667,7 @@
         <v>3201</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>0.5</v>
@@ -2637,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2648,7 +2705,7 @@
         <v>3301</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2660,22 +2717,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="J36">
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2686,7 +2743,7 @@
         <v>3401</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2713,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
@@ -2724,13 +2781,13 @@
         <v>9001</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C38">
         <v>0.5</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2745,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J38">
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2762,13 +2819,13 @@
         <v>9002</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2789,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2800,13 +2857,13 @@
         <v>9101</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2820,14 +2877,14 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="I40" t="s">
+        <v>114</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -2838,13 +2895,13 @@
         <v>9102</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2858,14 +2915,14 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="I41" t="s">
+        <v>114</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
         <v>19</v>
@@ -2876,13 +2933,13 @@
         <v>9103</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2896,14 +2953,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="I42" t="s">
+        <v>114</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
@@ -2914,13 +2971,13 @@
         <v>9104</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2934,14 +2991,14 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
+      <c r="I43" t="s">
+        <v>114</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L43" t="s">
         <v>19</v>
@@ -2952,13 +3009,13 @@
         <v>9201</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2972,14 +3029,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
+      <c r="I44" t="s">
+        <v>114</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L44" t="s">
         <v>19</v>
@@ -2990,13 +3047,13 @@
         <v>9202</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C45">
         <v>0.5</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3017,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3028,13 +3085,13 @@
         <v>9301</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C46">
         <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3055,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3066,13 +3123,13 @@
         <v>9302</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3093,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L47" t="s">
         <v>19</v>
@@ -3104,13 +3161,13 @@
         <v>9901</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C48">
         <v>0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3131,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3142,13 +3199,13 @@
         <v>9902</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3169,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49">
         <v>0</v>

--- a/Assets/Excel/SkillPerform.xlsx
+++ b/Assets/Excel/SkillPerform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13830" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillPerform" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -320,7 +320,13 @@
     <t>Tadpole Strike</t>
   </si>
   <si>
+    <t>Tadpole</t>
+  </si>
+  <si>
     <t>WhereMom</t>
+  </si>
+  <si>
+    <t>FocusTarget</t>
   </si>
   <si>
     <t>Cook Human On Time</t>
@@ -1386,11 +1392,11 @@
   <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2404,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2412,23 +2418,23 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2439,7 +2445,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2477,7 +2483,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2515,7 +2521,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -2553,7 +2559,7 @@
         <v>3104</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2591,7 +2597,7 @@
         <v>3105</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C33">
         <v>0.5</v>
@@ -2629,7 +2635,7 @@
         <v>3106</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -2667,7 +2673,7 @@
         <v>3201</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>0.5</v>
@@ -2705,7 +2711,7 @@
         <v>3301</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2726,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J36">
         <v>6</v>
@@ -2743,7 +2749,7 @@
         <v>3401</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2781,13 +2787,13 @@
         <v>9001</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38">
         <v>0.5</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2802,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J38">
         <v>4</v>
@@ -2819,13 +2825,13 @@
         <v>9002</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2857,13 +2863,13 @@
         <v>9101</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2878,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2895,13 +2901,13 @@
         <v>9102</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2916,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2933,13 +2939,13 @@
         <v>9103</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2971,13 +2977,13 @@
         <v>9104</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2992,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3009,13 +3015,13 @@
         <v>9201</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3030,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3047,13 +3053,13 @@
         <v>9202</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45">
         <v>0.5</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3085,13 +3091,13 @@
         <v>9301</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46">
         <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3123,13 +3129,13 @@
         <v>9302</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3161,13 +3167,13 @@
         <v>9901</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3199,13 +3205,13 @@
         <v>9902</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C49">
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>0</v>
